--- a/biology/Médecine/Nœud_lymphatique_interpectoral/Nœud_lymphatique_interpectoral.xlsx
+++ b/biology/Médecine/Nœud_lymphatique_interpectoral/Nœud_lymphatique_interpectoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C5%93ud_lymphatique_interpectoral</t>
+          <t>Nœud_lymphatique_interpectoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nœuds lymphatiques interpectoraux (ou ganglions lymphatiques interpectoraux de Grossmann) sont de petits ganglions se trouvant entre le muscle grand pectoral et le muscle petit pectoral en avant de ce dernier.
 Ils sont drainés par les nœuds lymphatiques axillaires pectoraux.
